--- a/images/biodata_import.xlsx
+++ b/images/biodata_import.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="28">
   <si>
     <t>nama</t>
   </si>
@@ -91,14 +91,24 @@
   </si>
   <si>
     <t>golongan_darah</t>
+  </si>
+  <si>
+    <t>2010-10-12</t>
+  </si>
+  <si>
+    <t>04/01/1970</t>
+  </si>
+  <si>
+    <t>05/01/1950</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
+    <numFmt numFmtId="166" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -144,7 +154,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -155,8 +165,12 @@
     <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -461,7 +475,7 @@
   <dimension ref="A1:P8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N11" sqref="N11"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -541,10 +555,10 @@
       <c r="C2" t="s">
         <v>23</v>
       </c>
-      <c r="D2" s="4">
-        <v>30684</v>
-      </c>
-      <c r="E2" s="5">
+      <c r="D2" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" s="4">
         <v>1</v>
       </c>
       <c r="F2">
@@ -591,10 +605,10 @@
       <c r="C3" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="4">
-        <v>25572</v>
-      </c>
-      <c r="E3" s="5">
+      <c r="D3" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" s="4">
         <v>2</v>
       </c>
       <c r="F3">
@@ -641,10 +655,10 @@
       <c r="C4" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="4">
-        <v>18268</v>
-      </c>
-      <c r="E4" s="5">
+      <c r="D4" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" s="4">
         <v>4</v>
       </c>
       <c r="F4">
@@ -691,10 +705,10 @@
       <c r="C5" t="s">
         <v>23</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="6">
         <v>32879</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E5" s="4">
         <v>4</v>
       </c>
       <c r="F5">
@@ -741,10 +755,10 @@
       <c r="C6" t="s">
         <v>23</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="6">
         <v>42742</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E6" s="4">
         <v>3</v>
       </c>
       <c r="F6">
@@ -791,10 +805,10 @@
       <c r="C7" t="s">
         <v>23</v>
       </c>
-      <c r="D7" s="4">
-        <v>36168</v>
-      </c>
-      <c r="E7" s="5">
+      <c r="D7" s="8">
+        <v>36167</v>
+      </c>
+      <c r="E7" s="4">
         <v>4</v>
       </c>
       <c r="F7">
@@ -841,10 +855,10 @@
       <c r="C8" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="4">
-        <v>24481</v>
-      </c>
-      <c r="E8" s="5">
+      <c r="D8" s="7">
+        <v>36168</v>
+      </c>
+      <c r="E8" s="4">
         <v>4</v>
       </c>
       <c r="F8">
